--- a/Migrade_v.1.2/media/excel-files/SF9_Grade4-6.xlsx
+++ b/Migrade_v.1.2/media/excel-files/SF9_Grade4-6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\GitHub\MiGrade\Migrade_v.1.2\media\excel-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angelo\Documents\GitHub\ces_migrade\MiGrade\Migrade_v.1.2\media\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B902B30-94FF-45F5-A5C2-5174716E2D7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD024FF-113E-4188-8204-C424A404B151}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" tabRatio="865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>Quarter</t>
   </si>
   <si>
-    <t>Final Rating</t>
-  </si>
-  <si>
     <t>Core Values</t>
   </si>
   <si>
@@ -397,6 +394,9 @@
   </si>
   <si>
     <t>4th Quarter _____________________________________________</t>
+  </si>
+  <si>
+    <t>Final Grade</t>
   </si>
 </sst>
 </file>
@@ -808,7 +808,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1013,6 +1013,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1021,9 +1024,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1330,8 +1330,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2749,7 +2754,7 @@
   <dimension ref="A3:AC50"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="R32" sqref="R32:S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2811,7 +2816,7 @@
       <c r="O4" s="54"/>
       <c r="P4" s="17"/>
       <c r="Q4" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R4" s="59"/>
       <c r="S4" s="59"/>
@@ -2821,7 +2826,7 @@
     <row r="5" spans="1:23" ht="15" customHeight="1">
       <c r="A5" s="58"/>
       <c r="B5" s="77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="78"/>
       <c r="D5" s="78"/>
@@ -2862,7 +2867,7 @@
       <c r="O6" s="54"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R6" s="100"/>
       <c r="S6" s="100"/>
@@ -2872,40 +2877,40 @@
     <row r="7" spans="1:23" ht="15" customHeight="1">
       <c r="A7" s="62"/>
       <c r="B7" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="D7" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="E7" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="F7" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="G7" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="H7" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="I7" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="J7" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="K7" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="K7" s="65" t="s">
+      <c r="L7" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="L7" s="65" t="s">
+      <c r="M7" s="65" t="s">
         <v>92</v>
-      </c>
-      <c r="M7" s="65" t="s">
-        <v>93</v>
       </c>
       <c r="N7" s="68" t="s">
         <v>3</v>
@@ -2913,7 +2918,7 @@
       <c r="O7" s="54"/>
       <c r="P7" s="53"/>
       <c r="Q7" s="101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R7" s="101"/>
       <c r="S7" s="101"/>
@@ -2938,7 +2943,7 @@
       <c r="O8" s="54"/>
       <c r="P8" s="53"/>
       <c r="Q8" s="102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R8" s="102"/>
       <c r="S8" s="102"/>
@@ -3016,7 +3021,7 @@
     </row>
     <row r="12" spans="1:23" ht="19.5" customHeight="1">
       <c r="A12" s="97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="79"/>
       <c r="C12" s="79"/>
@@ -3034,7 +3039,7 @@
       <c r="O12" s="17"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R12" s="50"/>
       <c r="S12" s="50"/>
@@ -3080,7 +3085,7 @@
       <c r="M14" s="80"/>
       <c r="N14" s="95"/>
       <c r="P14" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="20"/>
@@ -3105,7 +3110,7 @@
       <c r="M15" s="81"/>
       <c r="N15" s="96"/>
       <c r="P15" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q15" s="20"/>
       <c r="R15" s="20"/>
@@ -3116,7 +3121,7 @@
     </row>
     <row r="16" spans="1:23" s="2" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="82"/>
       <c r="C16" s="82"/>
@@ -3132,12 +3137,12 @@
       <c r="M16" s="82"/>
       <c r="N16" s="103"/>
       <c r="P16" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="20"/>
       <c r="S16" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
@@ -3160,12 +3165,12 @@
       <c r="M17" s="83"/>
       <c r="N17" s="104"/>
       <c r="P17" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="20"/>
       <c r="R17" s="20"/>
       <c r="S17" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
@@ -3187,7 +3192,7 @@
       <c r="M18" s="83"/>
       <c r="N18" s="104"/>
       <c r="P18" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q18" s="20"/>
       <c r="R18" s="20"/>
@@ -3220,7 +3225,7 @@
     </row>
     <row r="20" spans="1:27" ht="11.25" customHeight="1">
       <c r="A20" s="97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" s="91"/>
       <c r="C20" s="85"/>
@@ -3236,7 +3241,7 @@
       <c r="M20" s="85"/>
       <c r="N20" s="94"/>
       <c r="P20" s="56" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="56"/>
       <c r="R20" s="18"/>
@@ -3266,7 +3271,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y21" s="2" t="str">
         <f>IFERROR(VLOOKUP(W9,data,10,FALSE),"not found")</f>
@@ -3291,7 +3296,7 @@
       <c r="M22" s="86"/>
       <c r="N22" s="95"/>
       <c r="P22" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q22" s="46"/>
       <c r="R22" s="46"/>
@@ -3300,7 +3305,7 @@
       <c r="U22" s="46"/>
       <c r="V22" s="46"/>
       <c r="X22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Y22" s="2" t="e">
         <f>#REF!</f>
@@ -3323,7 +3328,7 @@
       <c r="M23" s="86"/>
       <c r="N23" s="95"/>
       <c r="P23" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q23" s="45"/>
       <c r="R23" s="46"/>
@@ -3333,7 +3338,7 @@
       <c r="V23" s="46"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y23" s="2" t="e">
         <f>#REF!</f>
@@ -3358,7 +3363,7 @@
       <c r="M24" s="87"/>
       <c r="N24" s="96"/>
       <c r="P24" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q24" s="46"/>
       <c r="R24" s="46"/>
@@ -3367,10 +3372,10 @@
       <c r="U24" s="46"/>
       <c r="V24" s="46"/>
       <c r="X24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Y24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="7.5" customHeight="1">
@@ -3387,18 +3392,18 @@
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
-      <c r="P25" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
+      <c r="P25" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
       <c r="S25" s="46"/>
       <c r="T25" s="46"/>
       <c r="U25" s="46"/>
       <c r="V25" s="46"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y25" s="2" t="e">
         <f>#REF!</f>
@@ -3408,16 +3413,16 @@
       <c r="AA25" s="2"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" customHeight="1">
-      <c r="P26" s="72"/>
-      <c r="Q26" s="72"/>
-      <c r="R26" s="72"/>
+      <c r="P26" s="73"/>
+      <c r="Q26" s="73"/>
+      <c r="R26" s="73"/>
       <c r="S26" s="47"/>
-      <c r="T26" s="175"/>
-      <c r="U26" s="175"/>
-      <c r="V26" s="175"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y26" s="2" t="e">
         <f>#REF!</f>
@@ -3443,20 +3448,20 @@
       <c r="AA27" s="2"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1">
-      <c r="B28" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
+      <c r="B28" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
       <c r="P28" s="52" t="s">
         <v>7</v>
       </c>
@@ -3486,7 +3491,7 @@
     </row>
     <row r="30" spans="1:27" s="2" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" s="76"/>
       <c r="C30" s="76"/>
@@ -3527,7 +3532,7 @@
     </row>
     <row r="32" spans="1:27" ht="18" customHeight="1">
       <c r="A32" s="71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B32" s="71"/>
       <c r="C32" s="71"/>
@@ -3543,17 +3548,17 @@
       <c r="M32" s="71"/>
       <c r="N32" s="71"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="75" t="s">
+      <c r="P32" s="175" t="s">
         <v>113</v>
       </c>
-      <c r="U32" s="75"/>
-      <c r="V32" s="75"/>
+      <c r="Q32" s="175"/>
+      <c r="R32" s="176"/>
+      <c r="S32" s="176"/>
+      <c r="T32" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
       <c r="W32" s="9"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
@@ -3562,15 +3567,15 @@
     </row>
     <row r="33" spans="1:29" ht="18" customHeight="1">
       <c r="O33" s="1"/>
-      <c r="P33" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q33" s="75"/>
-      <c r="R33" s="75"/>
-      <c r="S33" s="75"/>
-      <c r="T33" s="75"/>
-      <c r="U33" s="75"/>
-      <c r="V33" s="75"/>
+      <c r="P33" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
       <c r="W33" s="3"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
@@ -3592,14 +3597,14 @@
     </row>
     <row r="35" spans="1:29" ht="15" hidden="1" customHeight="1">
       <c r="P35" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V35" s="15"/>
       <c r="W35" s="15"/>
@@ -3610,7 +3615,7 @@
     </row>
     <row r="36" spans="1:29" ht="12" customHeight="1">
       <c r="A36" s="71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B36" s="71"/>
       <c r="C36" s="71"/>
@@ -3654,7 +3659,7 @@
     </row>
     <row r="38" spans="1:29" ht="13.5" customHeight="1">
       <c r="A38" s="71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38" s="71"/>
       <c r="C38" s="71"/>
@@ -3715,7 +3720,7 @@
     </row>
     <row r="42" spans="1:29" ht="18">
       <c r="P42" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q42" s="24"/>
       <c r="R42" s="24"/>
@@ -3733,7 +3738,7 @@
     </row>
     <row r="43" spans="1:29" ht="18">
       <c r="P43" s="51" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q43" s="51"/>
       <c r="R43" s="51"/>
@@ -3866,12 +3871,12 @@
     <mergeCell ref="T26:V26"/>
     <mergeCell ref="P25:R26"/>
     <mergeCell ref="B28:M28"/>
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="P33:V33"/>
     <mergeCell ref="Q30:U30"/>
     <mergeCell ref="A30:N30"/>
     <mergeCell ref="A32:N32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="S33:V33"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A11"/>
@@ -3914,8 +3919,8 @@
   <sheetPr codeName="Sheet127"/>
   <dimension ref="A3:AC29"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3997,16 +4002,16 @@
       <c r="P5" s="125"/>
       <c r="Q5" s="126"/>
       <c r="R5" s="127" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="S5" s="129" t="s">
         <v>2</v>
       </c>
       <c r="U5" s="125" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" s="125" t="s">
         <v>14</v>
-      </c>
-      <c r="V5" s="125" t="s">
-        <v>15</v>
       </c>
       <c r="W5" s="125"/>
       <c r="X5" s="125"/>
@@ -4023,31 +4028,31 @@
       <c r="C6" s="124"/>
       <c r="D6" s="33"/>
       <c r="E6" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="G6" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="H6" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="I6" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="K6" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="33" t="s">
+      <c r="M6" s="33" t="s">
         <v>77</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" s="33" t="s">
-        <v>78</v>
       </c>
       <c r="N6" s="43">
         <v>1</v>
@@ -4082,7 +4087,7 @@
     </row>
     <row r="7" spans="1:29" ht="17.25" customHeight="1">
       <c r="A7" s="106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="106"/>
       <c r="C7" s="106"/>
@@ -4134,10 +4139,10 @@
       <c r="S7" s="34"/>
       <c r="T7" s="31"/>
       <c r="U7" s="107" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V7" s="110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W7" s="111"/>
       <c r="X7" s="112"/>
@@ -4149,7 +4154,7 @@
     </row>
     <row r="8" spans="1:29" ht="17.25" customHeight="1">
       <c r="A8" s="132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="132"/>
       <c r="C8" s="132"/>
@@ -4211,7 +4216,7 @@
     </row>
     <row r="9" spans="1:29" ht="8.25" customHeight="1">
       <c r="A9" s="137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="138"/>
       <c r="C9" s="139"/>
@@ -4294,7 +4299,7 @@
       <c r="T10" s="31"/>
       <c r="U10" s="108"/>
       <c r="V10" s="110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W10" s="111"/>
       <c r="X10" s="112"/>
@@ -4305,7 +4310,7 @@
     </row>
     <row r="11" spans="1:29" ht="17.25" customHeight="1">
       <c r="A11" s="132" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="132"/>
       <c r="C11" s="132"/>
@@ -4367,7 +4372,7 @@
     </row>
     <row r="12" spans="1:29" ht="20.25" customHeight="1">
       <c r="A12" s="132" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="132"/>
       <c r="C12" s="132"/>
@@ -4429,7 +4434,7 @@
     </row>
     <row r="13" spans="1:29" ht="16.5" customHeight="1">
       <c r="A13" s="160" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="160"/>
       <c r="C13" s="145"/>
@@ -4480,10 +4485,10 @@
       <c r="R13" s="161"/>
       <c r="S13" s="143"/>
       <c r="U13" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="V13" s="148" t="s">
         <v>24</v>
-      </c>
-      <c r="V13" s="148" t="s">
-        <v>25</v>
       </c>
       <c r="W13" s="149"/>
       <c r="X13" s="150"/>
@@ -4523,7 +4528,7 @@
     </row>
     <row r="15" spans="1:29" ht="13.5" customHeight="1">
       <c r="A15" s="162" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="162"/>
       <c r="C15" s="162"/>
@@ -4605,7 +4610,7 @@
       <c r="T16" s="36"/>
       <c r="U16" s="108"/>
       <c r="V16" s="148" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W16" s="149"/>
       <c r="X16" s="150"/>
@@ -4679,7 +4684,7 @@
     <row r="18" spans="1:28" ht="17.25" customHeight="1">
       <c r="A18" s="38"/>
       <c r="B18" s="172" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="173"/>
       <c r="D18" s="39" t="e">
@@ -4730,10 +4735,10 @@
       <c r="S18" s="49"/>
       <c r="T18" s="36"/>
       <c r="U18" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="V18" s="163" t="s">
         <v>28</v>
-      </c>
-      <c r="V18" s="163" t="s">
-        <v>29</v>
       </c>
       <c r="W18" s="164"/>
       <c r="X18" s="165"/>
@@ -4745,7 +4750,7 @@
     <row r="19" spans="1:28" ht="23.25" customHeight="1">
       <c r="A19" s="38"/>
       <c r="B19" s="172" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="173"/>
       <c r="D19" s="39" t="e">
@@ -4807,7 +4812,7 @@
     <row r="20" spans="1:28" ht="19.5" customHeight="1">
       <c r="A20" s="40"/>
       <c r="B20" s="172" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="173"/>
       <c r="D20" s="39" t="e">
@@ -4858,10 +4863,10 @@
       <c r="S20" s="49"/>
       <c r="T20" s="36"/>
       <c r="U20" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="V20" s="163" t="s">
         <v>30</v>
-      </c>
-      <c r="V20" s="163" t="s">
-        <v>31</v>
       </c>
       <c r="W20" s="164"/>
       <c r="X20" s="165"/>
@@ -4873,7 +4878,7 @@
     <row r="21" spans="1:28" ht="33" customHeight="1">
       <c r="A21" s="40"/>
       <c r="B21" s="172" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="173"/>
       <c r="D21" s="39" t="e">
@@ -4938,7 +4943,7 @@
         <v>#REF!</v>
       </c>
       <c r="N22" s="174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O22" s="174"/>
       <c r="P22" s="174"/>
@@ -4946,7 +4951,7 @@
       <c r="R22" s="41"/>
       <c r="U22" s="108"/>
       <c r="V22" s="163" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W22" s="164"/>
       <c r="X22" s="165"/>
@@ -4967,10 +4972,10 @@
     </row>
     <row r="24" spans="1:28" ht="15" customHeight="1">
       <c r="A24" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="122" t="s">
         <v>34</v>
-      </c>
-      <c r="N24" s="122" t="s">
-        <v>35</v>
       </c>
       <c r="O24" s="122"/>
       <c r="P24" s="122"/>
@@ -4982,107 +4987,107 @@
     </row>
     <row r="25" spans="1:28" ht="15" customHeight="1">
       <c r="A25" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" s="57" t="s">
         <v>36</v>
-      </c>
-      <c r="N25" s="57" t="s">
-        <v>37</v>
       </c>
       <c r="O25" s="57"/>
       <c r="P25" s="57"/>
       <c r="Q25" s="57"/>
       <c r="R25" s="57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S25" s="57"/>
       <c r="V25" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="X25" s="32" t="s">
         <v>39</v>
-      </c>
-      <c r="X25" s="32" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="15" customHeight="1">
       <c r="A26" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="57" t="s">
         <v>41</v>
-      </c>
-      <c r="N26" s="57" t="s">
-        <v>42</v>
       </c>
       <c r="O26" s="57"/>
       <c r="P26" s="57"/>
       <c r="Q26" s="57"/>
       <c r="R26" s="57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S26" s="57"/>
       <c r="V26" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="X26" s="32" t="s">
         <v>43</v>
-      </c>
-      <c r="X26" s="32" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:28" ht="15" customHeight="1">
       <c r="A27" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" s="57" t="s">
         <v>45</v>
-      </c>
-      <c r="N27" s="57" t="s">
-        <v>46</v>
       </c>
       <c r="O27" s="57"/>
       <c r="P27" s="57"/>
       <c r="Q27" s="57"/>
       <c r="R27" s="57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S27" s="57"/>
       <c r="V27" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="X27" s="32" t="s">
         <v>47</v>
-      </c>
-      <c r="X27" s="32" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="15" customHeight="1">
       <c r="A28" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="N28" s="57" t="s">
         <v>49</v>
-      </c>
-      <c r="N28" s="57" t="s">
-        <v>50</v>
       </c>
       <c r="O28" s="57"/>
       <c r="P28" s="57"/>
       <c r="Q28" s="57"/>
       <c r="R28" s="57" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S28" s="57"/>
       <c r="V28" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="X28" s="32" t="s">
         <v>51</v>
-      </c>
-      <c r="X28" s="32" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="15" customHeight="1">
       <c r="A29" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="N29" s="57" t="s">
         <v>53</v>
-      </c>
-      <c r="N29" s="57" t="s">
-        <v>54</v>
       </c>
       <c r="O29" s="57"/>
       <c r="P29" s="57"/>
       <c r="Q29" s="57"/>
       <c r="R29" s="57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S29" s="57"/>
       <c r="V29" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="X29" s="32" t="s">
         <v>56</v>
-      </c>
-      <c r="X29" s="32" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
